--- a/FunctionalityTesting.xlsx
+++ b/FunctionalityTesting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1989s\study\LastYear\Project\Assesment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4200B35F-7C70-4BB8-8819-009613DBD74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE3D304-1F70-4773-9476-86F59E36BBF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{11A9F7E4-CED0-4063-8894-46FC5F7744B0}"/>
+    <workbookView xWindow="1110" yWindow="1340" windowWidth="14400" windowHeight="7270" xr2:uid="{11A9F7E4-CED0-4063-8894-46FC5F7744B0}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -89,19 +89,13 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -261,16 +255,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -623,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F12D45-9E10-4C07-8536-B8FB601C9B48}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,7 +632,7 @@
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="2"/>
@@ -649,7 +640,7 @@
     <row r="5" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -658,7 +649,7 @@
     <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -666,215 +657,215 @@
     </row>
     <row r="7" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>2</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>3</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>4</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>5</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>6</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>7</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>8</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>9</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>10</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>11</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="B19" s="8">
+      <c r="B19" s="7">
         <v>12</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>13</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B21" s="8">
+      <c r="B21" s="7">
         <v>14</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="8">
+      <c r="B22" s="7">
         <v>15</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>16</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="I23" s="14"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>17</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="15"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C26" s="1"/>
